--- a/ILRG_ORAM_I_encontros_drp/ILRG_ORAM_I_encontros_drp-media/ILRG_ORAM_I_encontros_drp.xlsx
+++ b/ILRG_ORAM_I_encontros_drp/ILRG_ORAM_I_encontros_drp-media/ILRG_ORAM_I_encontros_drp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_I_encontros_drp\ILRG_ORAM_I_encontros_drp-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CFC557-8D34-4CF4-A79B-8EF60AE1E4F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657BDF10-15A8-4980-A391-34B2B92A6C18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="1207">
   <si>
     <t>type</t>
   </si>
@@ -3641,6 +3641,72 @@
   </si>
   <si>
     <t>select_one_external posts</t>
+  </si>
+  <si>
+    <t>Bonefacio_Basílio</t>
+  </si>
+  <si>
+    <t>Bonefacio Basílio</t>
+  </si>
+  <si>
+    <t>Calisto_Agostinho_Inácio</t>
+  </si>
+  <si>
+    <t>Calisto Agostinho Inácio</t>
+  </si>
+  <si>
+    <t>Celestina_Armando</t>
+  </si>
+  <si>
+    <t>Celestina Armando</t>
+  </si>
+  <si>
+    <t>Celestina_Joaquim_Muanavava</t>
+  </si>
+  <si>
+    <t>Celestina Joaquim Muanavava</t>
+  </si>
+  <si>
+    <t>Constantino_Jerónimo</t>
+  </si>
+  <si>
+    <t>Constantino Jerónimo</t>
+  </si>
+  <si>
+    <t>Costa_António</t>
+  </si>
+  <si>
+    <t>Costa António</t>
+  </si>
+  <si>
+    <t>Damacio_Feliciano</t>
+  </si>
+  <si>
+    <t>Damacio Feliciano</t>
+  </si>
+  <si>
+    <t>Diosa_Alberto</t>
+  </si>
+  <si>
+    <t>Diosa Alberto</t>
+  </si>
+  <si>
+    <t>Olinda_Rui_Muquelesse</t>
+  </si>
+  <si>
+    <t>Olinda Rui Muquelesse</t>
+  </si>
+  <si>
+    <t>Xerife_Gabriel</t>
+  </si>
+  <si>
+    <t>Xerife Gabriel</t>
+  </si>
+  <si>
+    <t>Zito_Afonso</t>
+  </si>
+  <si>
+    <t>Zito Afonso</t>
   </si>
 </sst>
 </file>
@@ -4118,7 +4184,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4253,6 +4319,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="245">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4838,7 +4912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5461,13 +5535,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5496,563 +5570,700 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="61" t="s">
         <v>1155</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="62" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="62" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="61" t="s">
         <v>1157</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="62" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="61" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="61" t="s">
         <v>1159</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C10" s="62" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B11" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="61" t="s">
         <v>1161</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C13" s="62" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B14" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="61" t="s">
         <v>1163</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C16" s="62" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B17" s="61" t="s">
         <v>1165</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C17" s="62" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B18" s="61" t="s">
         <v>1167</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C18" s="62" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B19" s="61" t="s">
         <v>1169</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C19" s="62" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B20" s="61" t="s">
         <v>1171</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C20" s="62" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B21" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="61" t="s">
         <v>1173</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C23" s="62" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B24" s="61" t="s">
         <v>1175</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C24" s="62" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B25" s="61" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="61" t="s">
         <v>1144</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C27" s="60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="35"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>111</v>
-      </c>
+      <c r="A28" s="35"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="35"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="A29" s="35"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="35"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>1138</v>
+        <v>22</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>1139</v>
+        <v>23</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>1138</v>
+        <v>22</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>1140</v>
+        <v>1153</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>52</v>
+      <c r="B32" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>1138</v>
+      <c r="A33" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>54</v>
+        <v>1145</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>1138</v>
+      <c r="A34" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>49</v>
+        <v>1149</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>1138</v>
+      <c r="A35" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>50</v>
+        <v>1146</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>1138</v>
+      <c r="A36" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>53</v>
+        <v>1150</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>1138</v>
+      <c r="A37" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>57</v>
+        <v>1147</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>1138</v>
+      <c r="A38" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>48</v>
+        <v>1151</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>1138</v>
+      <c r="A39" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="B39" s="51" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="51" t="s">
         <v>1144</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>70</v>
+      <c r="C41" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>71</v>
+      <c r="B42" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
-        <v>68</v>
+        <v>1138</v>
       </c>
       <c r="B43" s="51" t="s">
-        <v>1179</v>
+        <v>1139</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
-        <v>68</v>
+        <v>1138</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>1180</v>
+        <v>1140</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B54" s="51" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="51" t="s">
         <v>1181</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C58" s="35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B62" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B63" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B65" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B66" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B67" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B68" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B69" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C18" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C20:C27">
-    <sortCondition ref="C20:C27"/>
+  <autoFilter ref="A1:C31" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C33:C40">
+    <sortCondition ref="C33:C40"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -31370,7 +31581,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31404,7 +31615,7 @@
         <v>1096</v>
       </c>
       <c r="C2" s="26">
-        <v>201904033</v>
+        <v>201904101</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>1097</v>

--- a/ILRG_ORAM_I_encontros_drp/ILRG_ORAM_I_encontros_drp-media/ILRG_ORAM_I_encontros_drp.xlsx
+++ b/ILRG_ORAM_I_encontros_drp/ILRG_ORAM_I_encontros_drp-media/ILRG_ORAM_I_encontros_drp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_I_encontros_drp\ILRG_ORAM_I_encontros_drp-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCBE675-2150-412A-B8B9-BE7F31FD90D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC3E71-6CA7-4A27-B5FC-F4A6D2F281CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1212">
   <si>
     <t>type</t>
   </si>
@@ -3705,14 +3705,39 @@
   <si>
     <t>Wiwanana [Muelamassi]</t>
   </si>
+  <si>
+    <t>AS040024</t>
+  </si>
+  <si>
+    <t>Nari None [Inhanhane]</t>
+  </si>
+  <si>
+    <t>AS040025</t>
+  </si>
+  <si>
+    <t>Ohaua [Maripiha]</t>
+  </si>
+  <si>
+    <t>AS040023</t>
+  </si>
+  <si>
+    <t>Vahane Murima [Muyeye]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3936,387 +3961,395 @@
   </borders>
   <cellStyleXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="245" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="245" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="245" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="245"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="245" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="245"/>
   </cellXfs>
   <cellStyles count="246">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6265,9 +6298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AF946A-F50F-4776-B059-1693A52295D1}">
   <dimension ref="A1:G4196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D548" sqref="D548"/>
+      <selection pane="bottomLeft" activeCell="C549" sqref="C549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14144,49 +14177,86 @@
       <c r="C536" s="54"/>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" s="50" t="s">
+      <c r="A537" s="62" t="s">
         <v>1094</v>
       </c>
-      <c r="B537" s="55" t="s">
+      <c r="B537" s="63" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C537" s="64" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D537" s="65"/>
+      <c r="E537" s="65"/>
+      <c r="F537" s="65" t="s">
+        <v>701</v>
+      </c>
+      <c r="G537" s="54"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" s="62" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B538" s="63" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C538" s="64" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D538" s="65"/>
+      <c r="E538" s="65"/>
+      <c r="F538" s="65" t="s">
+        <v>701</v>
+      </c>
+      <c r="G538" s="54"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" s="62" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B539" s="63" t="s">
         <v>1202</v>
       </c>
-      <c r="C537" s="54" t="s">
+      <c r="C539" s="64" t="s">
         <v>1203</v>
       </c>
-      <c r="F537" s="53" t="s">
+      <c r="D539" s="65"/>
+      <c r="E539" s="65"/>
+      <c r="F539" s="65" t="s">
         <v>701</v>
       </c>
-      <c r="G537" s="54"/>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" s="50" t="s">
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" s="62" t="s">
         <v>1094</v>
       </c>
-      <c r="B538" s="55" t="s">
+      <c r="B540" s="63" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C540" s="64" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D540" s="65"/>
+      <c r="E540" s="65"/>
+      <c r="F540" s="65" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" s="62" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B541" s="63" t="s">
         <v>1204</v>
       </c>
-      <c r="C538" s="54" t="s">
+      <c r="C541" s="64" t="s">
         <v>1205</v>
       </c>
-      <c r="F538" s="53" t="s">
+      <c r="D541" s="65"/>
+      <c r="E541" s="65"/>
+      <c r="F541" s="65" t="s">
         <v>701</v>
       </c>
-      <c r="G538" s="54"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="50"/>
-      <c r="B539" s="55"/>
-      <c r="C539" s="54"/>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" s="50"/>
-      <c r="B540" s="55"/>
-      <c r="C540" s="54"/>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A541" s="50"/>
-      <c r="B541" s="55"/>
-      <c r="C541" s="54"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="50"/>
@@ -31540,8 +31610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31575,7 +31645,7 @@
         <v>1096</v>
       </c>
       <c r="C2" s="25">
-        <v>201904103</v>
+        <v>201904171</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>1097</v>

--- a/ILRG_ORAM_I_encontros_drp/ILRG_ORAM_I_encontros_drp-media/ILRG_ORAM_I_encontros_drp.xlsx
+++ b/ILRG_ORAM_I_encontros_drp/ILRG_ORAM_I_encontros_drp-media/ILRG_ORAM_I_encontros_drp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_I_encontros_drp\ILRG_ORAM_I_encontros_drp-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC3E71-6CA7-4A27-B5FC-F4A6D2F281CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254ACC59-7307-4C5A-BD2D-F520C7B87D00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -3728,9 +3728,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3961,395 +3968,396 @@
   </borders>
   <cellStyleXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="245" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="245" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="245" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="245"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="245" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="245"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="246">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5561,11 +5569,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6010,7 +6018,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="66" t="s">
         <v>1133</v>
       </c>
       <c r="B43" s="34" t="s">
@@ -31610,7 +31618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
